--- a/main/main/作成資料（留置所）/過去の進捗/作成資料20210712/確認/PSNR改善が全体に与える影響.xlsx
+++ b/main/main/作成資料（留置所）/過去の進捗/作成資料20210712/確認/PSNR改善が全体に与える影響.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\septe\source\repos\main\main\main\作成資料（留置所）\過去の進捗\作成資料20210712\確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D9BACE-A805-471F-95DB-30FD53E4B0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23FAC69-0E11-4E4A-8917-4CA5CADE346B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="300" windowWidth="18660" windowHeight="17175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32475" yWindow="1815" windowWidth="22125" windowHeight="17175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Q10</t>
     <phoneticPr fontId="1"/>
@@ -130,6 +130,40 @@
     <t>Q=10</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ica_mse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dct_mse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割合</t>
+    <rPh sb="0" eb="2">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,12 +200,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -215,12 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -306,383 +329,22 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{98B7C6F6-6EC4-4DF4-91BD-EF1758E21B9A}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C343-4D8D-8149-8753AC403DCD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{61E0BDC1-F529-412E-9B47-A4F9C4E7090B}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-C343-4D8D-8149-8753AC403DCD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1D714434-E7DD-4DCD-8763-6BFDDA8C4DF0}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-C343-4D8D-8149-8753AC403DCD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D10A343C-519F-4845-85C4-E541AF2E8FFD}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-C343-4D8D-8149-8753AC403DCD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F27444C0-44A3-4DE3-961C-9CB06AA55234}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-C343-4D8D-8149-8753AC403DCD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{04C34C52-84D6-4C89-90AA-E1DCAE65BEE5}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-C343-4D8D-8149-8753AC403DCD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-1D09-45AA-BBA4-17EEB10B466A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-1D09-45AA-BBA4-17EEB10B466A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1D09-45AA-BBA4-17EEB10B466A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$13</c:f>
+              <c:f>Sheet1!$B$5:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0.0000000">
-                  <c:v>2.2875E-2</c:v>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.038945</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6678000000000001E-2</c:v>
+                  <c:v>1.2043600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8137999999999999E-2</c:v>
+                  <c:v>1.564433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.113914</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0000000">
-                  <c:v>0.69570399999999999</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0000000">
-                  <c:v>1.038945</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0000000">
-                  <c:v>1.2043600000000001</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.0000000">
-                  <c:v>1.564433</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0000000">
                   <c:v>3.179084</c:v>
                 </c:pt>
               </c:numCache>
@@ -690,35 +352,20 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$13</c:f>
+              <c:f>Sheet1!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3999999999801958E-5</c:v>
+                  <c:v>8.5200000000185128E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6000000000343562E-5</c:v>
+                  <c:v>1.8810000000009097E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0000000000145519E-5</c:v>
+                  <c:v>1.2420000000012976E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4999999999315605E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7500000000132445E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.5200000000185128E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8810000000009097E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2420000000012976E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>2.4669999999993308E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -726,32 +373,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>Sheet1!$A$5:$A$10</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C343-4D8D-8149-8753AC403DCD}"/>
             </c:ext>
@@ -795,254 +416,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B6EBE650-0D6C-4025-B5AD-E854A2FF7F47}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-C343-4D8D-8149-8753AC403DCD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{93DD7B34-7794-4B49-9051-690D630C0E30}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-C343-4D8D-8149-8753AC403DCD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{396E2EBA-0F9D-4390-B78E-C1D23944DAF8}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-C343-4D8D-8149-8753AC403DCD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{127879DE-17B9-4A9C-832B-AC7209FD0FAA}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-C343-4D8D-8149-8753AC403DCD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B0079D7A-835A-40AF-BEE1-F68240B9B2A9}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-C343-4D8D-8149-8753AC403DCD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F5B90724-C82D-4D95-BDFD-2AD5B9F5C4FD}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-C343-4D8D-8149-8753AC403DCD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$28:$B$33</c:f>
@@ -1099,41 +472,132 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>Sheet1!$A$28:$A$33</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>224</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>160</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>198</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-C343-4D8D-8149-8753AC403DCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5844000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1587000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.231794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32833600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87296200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1640489999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3774660000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8560239999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000920181E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8999999999874717E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7000000000235787E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2099999999980469E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6899999999917554E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2899999999975762E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4300000000087039E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6599999999871216E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6220000000011225E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D92-4DF3-88F8-A5255F3566F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1149,20 +613,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1410,8 +860,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.75525513522014942"/>
           <c:y val="0.63307114097648776"/>
-          <c:w val="0.13905532219067826"/>
-          <c:h val="0.12096485726894758"/>
+          <c:w val="0.24474523255636874"/>
+          <c:h val="0.3669291338582677"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2042,16 +1492,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2342,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T49"/>
+  <dimension ref="A2:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2359,7 +1809,7 @@
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2367,15 +1817,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="E3" s="1"/>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2391,492 +1847,354 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="S4" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>2.2875E-2</v>
+        <v>1.038945</v>
       </c>
       <c r="C5" s="2">
         <f>D5-E5</f>
-        <v>2.3999999999801958E-5</v>
+        <v>8.5200000000185128E-4</v>
       </c>
       <c r="D5" s="3">
-        <v>24.315033</v>
+        <v>24.315861000000002</v>
       </c>
       <c r="E5" s="3">
         <v>24.315009</v>
       </c>
-      <c r="F5" s="1">
-        <v>23.902957000000001</v>
-      </c>
-      <c r="G5" s="7">
-        <f>E5-F5</f>
-        <v>0.4120519999999992</v>
-      </c>
-      <c r="H5" s="6">
-        <f>F5+B5</f>
-        <v>23.925832</v>
-      </c>
-      <c r="I5" s="6">
-        <f>H5-E5</f>
-        <v>-0.38917700000000011</v>
-      </c>
-      <c r="J5" s="7">
-        <f>D5-H5</f>
-        <v>0.38920099999999991</v>
+      <c r="G5">
+        <v>178.875</v>
+      </c>
+      <c r="H5">
+        <v>227.21875</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I8" si="0">H5-G5</f>
+        <v>48.34375</v>
+      </c>
+      <c r="J5">
+        <f>10*LOG(H5/G5,10)</f>
+        <v>1.0389451955612654</v>
       </c>
       <c r="K5">
-        <f>B5/B$5</f>
-        <v>1</v>
+        <v>240.71009799999999</v>
       </c>
       <c r="L5">
-        <f>C5/C$5</f>
-        <v>1</v>
-      </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+        <v>240.75730899999999</v>
+      </c>
+      <c r="M5">
+        <v>4.7211000000004333E-2</v>
+      </c>
+      <c r="O5">
+        <f>10*LOG(255*255/(G5),10)</f>
+        <v>25.605307141000772</v>
+      </c>
+      <c r="P5">
+        <f>10*LOG(255*255/(H5),10)</f>
+        <v>24.566361945439507</v>
+      </c>
+      <c r="Q5" s="10">
+        <f>O5-P5</f>
+        <v>1.038945195561265</v>
+      </c>
       <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="4">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9">
-        <v>6.6678000000000001E-2</v>
+      <c r="S5">
+        <f>10*LOG(255*255/(K5),10)</f>
+        <v>24.315860511758089</v>
+      </c>
+      <c r="T5">
+        <f>10*LOG(255*255/(L5),10)</f>
+        <v>24.315008803976717</v>
+      </c>
+      <c r="U5" s="10">
+        <f>S5-T5</f>
+        <v>8.51707781372113E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="5">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.2043600000000001</v>
       </c>
       <c r="C6" s="2">
         <f>D6-E6</f>
-        <v>6.6000000000343562E-5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>24.315075</v>
+        <v>1.8810000000009097E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>24.316890000000001</v>
       </c>
       <c r="E6" s="3">
         <v>24.315009</v>
       </c>
-      <c r="F6" s="9">
-        <v>24.201087999999999</v>
-      </c>
-      <c r="G6" s="7">
-        <f>E6-F6</f>
-        <v>0.11392100000000127</v>
-      </c>
-      <c r="H6" s="6">
-        <f>F6+B6</f>
-        <v>24.267765999999998</v>
-      </c>
-      <c r="I6" s="6">
-        <f>H6-E6</f>
-        <v>-4.72430000000017E-2</v>
-      </c>
-      <c r="J6" s="7">
-        <f>D6-H6</f>
-        <v>4.7309000000002044E-2</v>
+      <c r="G6">
+        <v>334.03125</v>
+      </c>
+      <c r="H6">
+        <v>440.78125</v>
+      </c>
+      <c r="I6">
+        <f>H6-G6</f>
+        <v>106.75</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J8" si="1">10*LOG(H6/G6,10)</f>
+        <v>1.2043601342070711</v>
       </c>
       <c r="K6">
-        <f>B6/B$5</f>
-        <v>2.9148852459016394</v>
+        <v>240.65306100000001</v>
       </c>
       <c r="L6">
-        <f>C6/C$5</f>
-        <v>2.7500000000370073</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+        <v>240.75730899999999</v>
+      </c>
+      <c r="M6">
+        <v>0.10424799999998413</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O8" si="2">10*LOG(255*255/(G6),10)</f>
+        <v>22.892932621171383</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P8" si="3">10*LOG(255*255/(H6),10)</f>
+        <v>21.688572486964311</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" ref="Q6:Q8" si="4">O6-P6</f>
+        <v>1.2043601342070716</v>
+      </c>
       <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="5">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9">
-        <v>7.8137999999999999E-2</v>
+      <c r="S6">
+        <f>10*LOG(255*255/(K6),10)</f>
+        <v>24.316889707865727</v>
+      </c>
+      <c r="T6">
+        <f>10*LOG(255*255/(L6),10)</f>
+        <v>24.315008803976717</v>
+      </c>
+      <c r="U6" s="10">
+        <f>S6-T6</f>
+        <v>1.880903889009744E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.564433</v>
       </c>
       <c r="C7" s="2">
         <f>D7-E7</f>
-        <v>9.0000000000145519E-5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>24.315099</v>
+        <v>1.2420000000012976E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>24.316251000000001</v>
       </c>
       <c r="E7" s="3">
         <v>24.315009</v>
       </c>
-      <c r="F7" s="9">
-        <v>23.532404</v>
-      </c>
-      <c r="G7" s="7">
-        <f>E7-F7</f>
-        <v>0.78260500000000022</v>
-      </c>
-      <c r="H7" s="6">
-        <f>F7+B7</f>
-        <v>23.610541999999999</v>
-      </c>
-      <c r="I7" s="6">
-        <f>H7-E7</f>
-        <v>-0.70446700000000106</v>
-      </c>
-      <c r="J7" s="7">
-        <f>D7-H7</f>
-        <v>0.70455700000000121</v>
+      <c r="G7">
+        <v>162.609375</v>
+      </c>
+      <c r="H7">
+        <v>233.125</v>
+      </c>
+      <c r="I7">
+        <f>H7-G7</f>
+        <v>70.515625</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1.5644326857492772</v>
       </c>
       <c r="K7">
-        <f>B7/B$5</f>
-        <v>3.4158688524590164</v>
+        <f>L7-M7</f>
+        <v>240.68844608496093</v>
       </c>
       <c r="L7">
-        <f>C7/C$5</f>
-        <v>3.7500000000370073</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+        <v>240.75730899999999</v>
+      </c>
+      <c r="M7">
+        <v>6.88629150390625E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>26.019347802900747</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>24.454915117151472</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="4"/>
+        <v>1.5644326857492743</v>
+      </c>
       <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="4">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0.113914</v>
+      <c r="S7">
+        <f>10*LOG(255*255/(K7),10)</f>
+        <v>24.316251177967864</v>
+      </c>
+      <c r="T7">
+        <f>10*LOG(255*255/(L7),10)</f>
+        <v>24.315008803976717</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" ref="U7:U8" si="5">S7-T7</f>
+        <v>1.2423739911469056E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.179084</v>
       </c>
       <c r="C8" s="2">
         <f>D8-E8</f>
-        <v>6.4999999999315605E-5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>24.315073999999999</v>
+        <v>2.4669999999993308E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>24.317475999999999</v>
       </c>
       <c r="E8" s="3">
         <v>24.315009</v>
       </c>
-      <c r="F8" s="9">
-        <v>26.594560000000001</v>
-      </c>
-      <c r="G8" s="7">
-        <f>E8-F8</f>
-        <v>-2.2795510000000014</v>
-      </c>
-      <c r="H8" s="6">
-        <f>F8+B8</f>
-        <v>26.708474000000002</v>
-      </c>
-      <c r="I8" s="6">
-        <f>H8-E8</f>
-        <v>2.3934650000000026</v>
-      </c>
-      <c r="J8" s="7">
-        <f>D8-H8</f>
-        <v>-2.3934000000000033</v>
+      <c r="G8">
+        <v>129.71875</v>
+      </c>
+      <c r="H8">
+        <v>269.71875</v>
+      </c>
+      <c r="I8">
+        <f>H8-G8</f>
+        <v>140</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>3.1790838323146908</v>
       </c>
       <c r="K8">
-        <f>B8/B$5</f>
-        <v>4.979846994535519</v>
+        <f>L8-M8</f>
+        <v>240.62059024999999</v>
       </c>
       <c r="L8">
-        <f>C8/C$5</f>
-        <v>2.7083333333271655</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+        <v>240.75730899999999</v>
+      </c>
+      <c r="M8">
+        <v>0.13671875</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>27.000776058092967</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>23.821692225778275</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="4"/>
+        <v>3.1790838323146922</v>
+      </c>
       <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.69570399999999999</v>
-      </c>
-      <c r="C9" s="2">
-        <f>D9-E9</f>
-        <v>5.7500000000132445E-4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>24.315584000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>24.315009</v>
-      </c>
-      <c r="F9" s="1">
-        <v>24.69641</v>
-      </c>
-      <c r="G9" s="7">
-        <f>E9-F9</f>
-        <v>-0.38140100000000032</v>
-      </c>
-      <c r="H9" s="6">
-        <f>F9+B9</f>
-        <v>25.392113999999999</v>
-      </c>
-      <c r="I9" s="6">
-        <f>H9-E9</f>
-        <v>1.0771049999999995</v>
-      </c>
-      <c r="J9" s="7">
-        <f>D9-H9</f>
-        <v>-1.0765299999999982</v>
-      </c>
-      <c r="K9">
-        <f>B9/B$5</f>
-        <v>30.413289617486338</v>
-      </c>
-      <c r="L9">
-        <f>C9/C$5</f>
-        <v>23.958333333586218</v>
-      </c>
+      <c r="S8">
+        <f>10*LOG(255*255/(K8),10)</f>
+        <v>24.317475730704633</v>
+      </c>
+      <c r="T8">
+        <f>10*LOG(255*255/(L8),10)</f>
+        <v>24.315008803976717</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" si="5"/>
+        <v>2.4669267279158191E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="4">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.038945</v>
-      </c>
-      <c r="C10" s="2">
-        <f>D10-E10</f>
-        <v>8.5200000000185128E-4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>24.315861000000002</v>
-      </c>
-      <c r="E10" s="3">
-        <v>24.315009</v>
-      </c>
-      <c r="F10" s="1">
-        <v>24.566362000000002</v>
-      </c>
-      <c r="G10" s="7">
-        <f>E10-F10</f>
-        <v>-0.25135300000000171</v>
-      </c>
-      <c r="H10" s="6">
-        <f>F10+B10</f>
-        <v>25.605307000000003</v>
-      </c>
-      <c r="I10" s="6">
-        <f>H10-E10</f>
-        <v>1.2902980000000035</v>
-      </c>
-      <c r="J10" s="7">
-        <f>D10-H10</f>
-        <v>-1.2894460000000016</v>
-      </c>
-      <c r="K10">
-        <f>B10/B$5</f>
-        <v>45.418360655737708</v>
-      </c>
-      <c r="L10">
-        <f>C10/C$5</f>
-        <v>35.500000000370072</v>
-      </c>
+    <row r="10" spans="1:21">
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="5">
-        <v>828</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.2043600000000001</v>
-      </c>
-      <c r="C11" s="2">
-        <f>D11-E11</f>
-        <v>1.8810000000009097E-3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>24.316890000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>24.315009</v>
-      </c>
-      <c r="F11" s="1">
-        <v>21.688572000000001</v>
-      </c>
-      <c r="G11" s="7">
-        <f>E11-F11</f>
-        <v>2.6264369999999992</v>
-      </c>
-      <c r="H11" s="6">
-        <f>F11+B11</f>
-        <v>22.892932000000002</v>
-      </c>
-      <c r="I11" s="6">
-        <f>H11-E11</f>
-        <v>-1.422076999999998</v>
-      </c>
-      <c r="J11" s="7">
-        <f>D11-H11</f>
-        <v>1.4239579999999989</v>
-      </c>
-      <c r="K11">
-        <f>B11/B$5</f>
-        <v>52.649617486338805</v>
-      </c>
-      <c r="L11">
-        <f>C11/C$5</f>
-        <v>78.375000000684636</v>
-      </c>
+    <row r="11" spans="1:21">
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="4">
-        <v>909</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.564433</v>
-      </c>
-      <c r="C12" s="2">
-        <f>D12-E12</f>
-        <v>1.2420000000012976E-3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>24.316251000000001</v>
-      </c>
-      <c r="E12" s="3">
-        <v>24.315009</v>
-      </c>
-      <c r="F12" s="1">
-        <v>24.454915</v>
-      </c>
-      <c r="G12" s="7">
-        <f>E12-F12</f>
-        <v>-0.13990599999999986</v>
-      </c>
-      <c r="H12" s="6">
-        <f>F12+B12</f>
-        <v>26.019348000000001</v>
-      </c>
-      <c r="I12" s="6">
-        <f>H12-E12</f>
-        <v>1.7043390000000009</v>
-      </c>
-      <c r="J12" s="7">
-        <f>D12-H12</f>
-        <v>-1.7030969999999996</v>
-      </c>
-      <c r="K12">
-        <f>B12/B$5</f>
-        <v>68.390513661202192</v>
-      </c>
-      <c r="L12">
-        <f>C12/C$5</f>
-        <v>51.750000000481094</v>
-      </c>
+    <row r="12" spans="1:21">
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="5">
-        <v>578</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3.179084</v>
-      </c>
-      <c r="C13" s="2">
-        <f>D13-E13</f>
-        <v>2.4669999999993308E-3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>24.317475999999999</v>
-      </c>
-      <c r="E13" s="3">
-        <v>24.315009</v>
-      </c>
-      <c r="F13" s="1">
-        <v>23.821691999999999</v>
-      </c>
-      <c r="G13" s="7">
-        <f>E13-F13</f>
-        <v>0.49331700000000112</v>
-      </c>
-      <c r="H13" s="6">
-        <f>F13+B13</f>
-        <v>27.000775999999998</v>
-      </c>
-      <c r="I13" s="6">
-        <f>H13-E13</f>
-        <v>2.6857669999999985</v>
-      </c>
-      <c r="J13" s="7">
-        <f>D13-H13</f>
-        <v>-2.6832999999999991</v>
-      </c>
-      <c r="K13">
-        <f>B13/B$5</f>
-        <v>138.97634972677596</v>
-      </c>
-      <c r="L13">
-        <f>C13/C$5</f>
-        <v>102.79166666748699</v>
-      </c>
+    <row r="13" spans="1:21">
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -2923,7 +2241,7 @@
         <v>0.79426799999999997</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:C33" si="0">D28-E28</f>
+        <f t="shared" ref="C28:C33" si="6">D28-E28</f>
         <v>9.4400000000049999E-4</v>
       </c>
       <c r="D28" s="1">
@@ -2936,19 +2254,19 @@
         <v>23.070406999999999</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" ref="G28:G33" si="1">E28-F28</f>
+        <f t="shared" ref="G28:G33" si="7">E28-F28</f>
         <v>1.2446020000000004</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" ref="H28:H33" si="2">F28+B28</f>
+        <f t="shared" ref="H28:H33" si="8">F28+B28</f>
         <v>23.864674999999998</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" ref="I28:I33" si="3">H28-E28</f>
+        <f t="shared" ref="I28:I33" si="9">H28-E28</f>
         <v>-0.45033400000000157</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" ref="J28:J33" si="4">D28-H28</f>
+        <f t="shared" ref="J28:J33" si="10">D28-H28</f>
         <v>0.45127800000000207</v>
       </c>
       <c r="K28">
@@ -2972,7 +2290,7 @@
         <v>1.407303</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.1489999999992904E-3</v>
       </c>
       <c r="D29" s="3">
@@ -2985,31 +2303,31 @@
         <v>21.688572000000001</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.6264369999999992</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.095874999999999</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-1.2191340000000004</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.2212829999999997</v>
       </c>
       <c r="K29">
-        <f t="shared" ref="K29:K33" si="5">B29/B$28</f>
+        <f t="shared" ref="K29:K33" si="11">B29/B$28</f>
         <v>1.7718238680143226</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29:L33" si="6">C29/C$28</f>
+        <f t="shared" ref="L29:L33" si="12">C29/C$28</f>
         <v>2.2764830508455001</v>
       </c>
       <c r="M29">
-        <f t="shared" ref="M29:M33" si="7">C29/B29</f>
+        <f t="shared" ref="M29:M33" si="13">C29/B29</f>
         <v>1.5270343344676238E-3</v>
       </c>
     </row>
@@ -3021,7 +2339,7 @@
         <v>2.7431040000000002</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.9379999999991071E-3</v>
       </c>
       <c r="D30" s="1">
@@ -3034,31 +2352,31 @@
         <v>24.421858</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-0.10684900000000042</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>27.164961999999999</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.8499529999999993</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-2.8480150000000002</v>
       </c>
       <c r="K30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.4536252247352284</v>
       </c>
       <c r="L30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.0529661016928822</v>
       </c>
       <c r="M30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7.064989150973157E-4</v>
       </c>
     </row>
@@ -3070,7 +2388,7 @@
         <v>2.7667060000000001</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.7530000000007817E-3</v>
       </c>
       <c r="D31" s="1">
@@ -3083,31 +2401,31 @@
         <v>24.882836000000001</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-0.56782700000000119</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>27.649542</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.3345330000000004</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-3.3327799999999996</v>
       </c>
       <c r="K31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.4833406356544643</v>
       </c>
       <c r="L31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.8569915254235734</v>
       </c>
       <c r="M31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.3360544994689775E-4</v>
       </c>
     </row>
@@ -3119,7 +2437,7 @@
         <v>2.8574269999999999</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.7199999999988336E-3</v>
       </c>
       <c r="D32" s="1">
@@ -3132,31 +2450,31 @@
         <v>22.995714</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.3192950000000003</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>25.853141000000001</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.5381320000000009</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.5364120000000021</v>
       </c>
       <c r="K32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.5975602693297475</v>
       </c>
       <c r="L32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.8220338983028841</v>
       </c>
       <c r="M32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.0194013705296189E-4</v>
       </c>
     </row>
@@ -3168,7 +2486,7 @@
         <v>3.362552</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.2739999999998872E-3</v>
       </c>
       <c r="D33" s="1">
@@ -3181,31 +2499,31 @@
         <v>24.338315000000001</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-2.3306000000001603E-2</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>27.700867000000002</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.3858580000000025</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-3.3835840000000026</v>
       </c>
       <c r="K33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.2335231936827373</v>
       </c>
       <c r="L33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.4088983050833503</v>
       </c>
       <c r="M33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.7627206954714377E-4</v>
       </c>
     </row>
@@ -3251,17 +2569,17 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
-        <v>7</v>
-      </c>
-      <c r="B41" s="11">
-        <v>0.103689</v>
+        <v>11</v>
+      </c>
+      <c r="B41" s="9">
+        <v>3.5844000000000001E-2</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" ref="C41:C49" si="8">D41-E41</f>
-        <v>9.7000000000235787E-5</v>
+        <f>D41-E41</f>
+        <v>3.2000000000920181E-5</v>
       </c>
       <c r="D41" s="1">
-        <v>24.315106</v>
+        <v>24.315041000000001</v>
       </c>
       <c r="E41" s="3">
         <v>24.315009</v>
@@ -3269,17 +2587,17 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
-        <v>8</v>
-      </c>
-      <c r="B42" s="11">
-        <v>0.87296200000000002</v>
+        <v>12</v>
+      </c>
+      <c r="B42" s="9">
+        <v>9.1587000000000002E-2</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="8"/>
-        <v>7.2899999999975762E-4</v>
+        <f>D42-E42</f>
+        <v>6.8999999999874717E-5</v>
       </c>
       <c r="D42" s="1">
-        <v>24.315738</v>
+        <v>24.315078</v>
       </c>
       <c r="E42" s="3">
         <v>24.315009</v>
@@ -3287,17 +2605,17 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43">
-        <v>9</v>
-      </c>
-      <c r="B43" s="11">
-        <v>0.32833600000000002</v>
+        <v>7</v>
+      </c>
+      <c r="B43" s="9">
+        <v>0.103689</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="8"/>
-        <v>3.6899999999917554E-4</v>
+        <f>D43-E43</f>
+        <v>9.7000000000235787E-5</v>
       </c>
       <c r="D43" s="1">
-        <v>24.315377999999999</v>
+        <v>24.315106</v>
       </c>
       <c r="E43" s="3">
         <v>24.315009</v>
@@ -3307,11 +2625,11 @@
       <c r="A44">
         <v>10</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="9">
         <v>0.231794</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="8"/>
+        <f>D44-E44</f>
         <v>2.2099999999980469E-4</v>
       </c>
       <c r="D44" s="1">
@@ -3323,17 +2641,17 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
-        <v>11</v>
-      </c>
-      <c r="B45" s="11">
-        <v>3.5844000000000001E-2</v>
+        <v>9</v>
+      </c>
+      <c r="B45" s="9">
+        <v>0.32833600000000002</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="8"/>
-        <v>3.2000000000920181E-5</v>
+        <f>D45-E45</f>
+        <v>3.6899999999917554E-4</v>
       </c>
       <c r="D45" s="1">
-        <v>24.315041000000001</v>
+        <v>24.315377999999999</v>
       </c>
       <c r="E45" s="3">
         <v>24.315009</v>
@@ -3341,17 +2659,17 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46">
-        <v>12</v>
-      </c>
-      <c r="B46" s="11">
-        <v>9.1587000000000002E-2</v>
+        <v>8</v>
+      </c>
+      <c r="B46" s="9">
+        <v>0.87296200000000002</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="8"/>
-        <v>6.8999999999874717E-5</v>
+        <f>D46-E46</f>
+        <v>7.2899999999975762E-4</v>
       </c>
       <c r="D46" s="1">
-        <v>24.315078</v>
+        <v>24.315738</v>
       </c>
       <c r="E46" s="3">
         <v>24.315009</v>
@@ -3359,17 +2677,17 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47">
-        <v>13</v>
-      </c>
-      <c r="B47" s="11">
-        <v>1.8560239999999999</v>
+        <v>414</v>
+      </c>
+      <c r="B47" s="9">
+        <v>1.1640489999999999</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="8"/>
-        <v>1.6220000000011225E-3</v>
+        <f>D47-E47</f>
+        <v>3.4300000000087039E-4</v>
       </c>
       <c r="D47" s="1">
-        <v>24.316631000000001</v>
+        <v>24.315352000000001</v>
       </c>
       <c r="E47" s="3">
         <v>24.315009</v>
@@ -3377,14 +2695,17 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
-        <v>414</v>
-      </c>
-      <c r="B48" s="11">
-        <v>1.1640489999999999</v>
+        <v>415</v>
+      </c>
+      <c r="B48" s="9">
+        <v>1.3774660000000001</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" si="8"/>
-        <v>-24.315009</v>
+        <f>D48-E48</f>
+        <v>7.6599999999871216E-4</v>
+      </c>
+      <c r="D48">
+        <v>24.315774999999999</v>
       </c>
       <c r="E48" s="3">
         <v>24.315009</v>
@@ -3392,26 +2713,26 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>415</v>
-      </c>
-      <c r="B49" s="11">
-        <v>1.3774660000000001</v>
+        <v>13</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1.8560239999999999</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="8"/>
-        <v>-24.315009</v>
+        <f>D49-E49</f>
+        <v>1.6220000000011225E-3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>24.316631000000001</v>
       </c>
       <c r="E49" s="3">
         <v>24.315009</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L13">
-    <sortCondition ref="B5:B13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G7:O8">
+    <sortCondition ref="I7:I8"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="P3:T17"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
